--- a/扩张时间.xlsx
+++ b/扩张时间.xlsx
@@ -449,20 +449,16 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>62.8472</t>
-        </is>
+      <c r="B2" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>55.0387</t>
-        </is>
+      <c r="B3" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="4">
@@ -493,20 +489,16 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0.6427</t>
-        </is>
+      <c r="B7" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>21.2189</t>
-        </is>
+      <c r="B8" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="9">
@@ -537,30 +529,24 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>-25.2199</t>
-        </is>
+      <c r="B12" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>65.5526</t>
-        </is>
+      <c r="B13" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>40.7335</t>
-        </is>
+      <c r="B14" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="15">
@@ -583,10 +569,8 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2.0962</t>
-        </is>
+      <c r="B17" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="18">
@@ -601,20 +585,16 @@
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>10.0328</t>
-        </is>
+      <c r="B19" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>-3.6647</t>
-        </is>
+      <c r="B20" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="21">
@@ -629,10 +609,8 @@
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0.6368</t>
-        </is>
+      <c r="B22" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="23">
@@ -647,20 +625,16 @@
       <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>71.3567</t>
-        </is>
+      <c r="B24" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>0.6312</t>
-        </is>
+      <c r="B25" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="26">
@@ -675,10 +649,8 @@
       <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>23.8329</t>
-        </is>
+      <c r="B27" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="28">
@@ -709,10 +681,8 @@
       <c r="A31" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>-1896.3746</t>
-        </is>
+      <c r="B31" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="32">
@@ -727,10 +697,8 @@
       <c r="A33" t="n">
         <v>32</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>-11.8989</t>
-        </is>
+      <c r="B33" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="34">
@@ -763,7 +731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0.1082</t>
+          <t>0.0593</t>
         </is>
       </c>
     </row>
@@ -771,10 +739,8 @@
       <c r="A38" t="n">
         <v>37</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>53.6917</t>
-        </is>
+      <c r="B38" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="39">
@@ -789,10 +755,8 @@
       <c r="A40" t="n">
         <v>39</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>49.1641</t>
-        </is>
+      <c r="B40" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="41">
@@ -815,10 +779,8 @@
       <c r="A43" t="n">
         <v>42</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>-0.4932</t>
-        </is>
+      <c r="B43" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="44">
@@ -833,20 +795,16 @@
       <c r="A45" t="n">
         <v>44</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>161.0436</t>
-        </is>
+      <c r="B45" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>45</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>32.6591</t>
-        </is>
+      <c r="B46" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="47">
@@ -861,10 +819,8 @@
       <c r="A48" t="n">
         <v>47</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>40.9392</t>
-        </is>
+      <c r="B48" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="49">
@@ -879,20 +835,16 @@
       <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>0.0851</t>
-        </is>
+      <c r="B50" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>-12.8355</t>
-        </is>
+      <c r="B51" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="52">
@@ -907,20 +859,16 @@
       <c r="A53" t="n">
         <v>52</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>-8.6742</t>
-        </is>
+      <c r="B53" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>53</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>39.7134</t>
-        </is>
+      <c r="B54" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="55">
@@ -943,10 +891,8 @@
       <c r="A57" t="n">
         <v>56</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>0.5432</t>
-        </is>
+      <c r="B57" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="58">
@@ -961,10 +907,8 @@
       <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>-4.9706</t>
-        </is>
+      <c r="B59" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="60">
@@ -1011,60 +955,48 @@
       <c r="A65" t="n">
         <v>64</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>0.1781</t>
-        </is>
+      <c r="B65" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>65</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>29.7982</t>
-        </is>
+      <c r="B66" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>66</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>-1.7197</t>
-        </is>
+      <c r="B67" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>67</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>9.2244</t>
-        </is>
+      <c r="B68" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>-3.8237</t>
-        </is>
+      <c r="B69" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>69</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>0.1414</t>
-        </is>
+      <c r="B70" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="71">
@@ -1087,10 +1019,8 @@
       <c r="A73" t="n">
         <v>72</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>-15.7703</t>
-        </is>
+      <c r="B73" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="74">
@@ -1105,20 +1035,16 @@
       <c r="A75" t="n">
         <v>74</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>34.8511</t>
-        </is>
+      <c r="B75" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>75</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>42.9986</t>
-        </is>
+      <c r="B76" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="77">
@@ -1189,10 +1115,8 @@
       <c r="A85" t="n">
         <v>84</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>-11.8745</t>
-        </is>
+      <c r="B85" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="86">
@@ -1207,20 +1131,16 @@
       <c r="A87" t="n">
         <v>86</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>-0.7655</t>
-        </is>
+      <c r="B87" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>87</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>120.6434</t>
-        </is>
+      <c r="B88" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="89">
@@ -1235,10 +1155,8 @@
       <c r="A90" t="n">
         <v>89</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>28.2065</t>
-        </is>
+      <c r="B90" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="91">
@@ -1253,10 +1171,8 @@
       <c r="A92" t="n">
         <v>91</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>26.5363</t>
-        </is>
+      <c r="B92" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="93">
@@ -1265,7 +1181,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>0.0201</t>
+          <t>0.1504</t>
         </is>
       </c>
     </row>
@@ -1297,10 +1213,8 @@
       <c r="A97" t="n">
         <v>96</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>32.3853</t>
-        </is>
+      <c r="B97" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="98">
@@ -1315,10 +1229,8 @@
       <c r="A99" t="n">
         <v>98</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>55.3203</t>
-        </is>
+      <c r="B99" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="100">
@@ -1333,10 +1245,8 @@
       <c r="A101" t="n">
         <v>100</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>-12.8882</t>
-        </is>
+      <c r="B101" t="n">
+        <v>-999</v>
       </c>
     </row>
   </sheetData>

--- a/扩张时间.xlsx
+++ b/扩张时间.xlsx
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>0.1504</t>
+          <t>0.0384</t>
         </is>
       </c>
     </row>

--- a/扩张时间.xlsx
+++ b/扩张时间.xlsx
@@ -689,8 +689,10 @@
       <c r="A32" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="n">
-        <v>-999</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0.7050</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -729,10 +731,8 @@
       <c r="A37" t="n">
         <v>36</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>0.0593</t>
-        </is>
+      <c r="B37" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="38">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>0.0384</t>
+          <t>0.1231</t>
         </is>
       </c>
     </row>

--- a/扩张时间.xlsx
+++ b/扩张时间.xlsx
@@ -689,10 +689,8 @@
       <c r="A32" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>0.7050</t>
-        </is>
+      <c r="B32" t="n">
+        <v>7.8244</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +714,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>-999</v>
+        <v>3.7696</v>
       </c>
     </row>
     <row r="36">
@@ -1179,10 +1177,8 @@
       <c r="A93" t="n">
         <v>92</v>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>0.1231</t>
-        </is>
+      <c r="B93" t="n">
+        <v>-999</v>
       </c>
     </row>
     <row r="94">

--- a/扩张时间.xlsx
+++ b/扩张时间.xlsx
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-999</v>
+        <v>4.1497</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-999</v>
+        <v>15.3287</v>
       </c>
     </row>
     <row r="7">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>-999</v>
+        <v>10.4402</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-999</v>
+        <v>13.0958</v>
       </c>
     </row>
     <row r="11">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-999</v>
+        <v>46.4207</v>
       </c>
     </row>
     <row r="15">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-999</v>
+        <v>34.3847</v>
       </c>
     </row>
     <row r="17">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-999</v>
+        <v>10.1748</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-999</v>
+        <v>24.8913</v>
       </c>
     </row>
     <row r="20">
@@ -642,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-999</v>
+        <v>43.4395</v>
       </c>
     </row>
     <row r="27">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-999</v>
+        <v>31.4084</v>
       </c>
     </row>
     <row r="29">
@@ -690,7 +690,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>7.8244</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>-999</v>
+        <v>45.9812</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-999</v>
+        <v>34.6158</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>3.7696</v>
+        <v>-999</v>
       </c>
     </row>
     <row r="36">
@@ -730,7 +730,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>-999</v>
+        <v>10.6808</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-999</v>
+        <v>44.6078</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>-999</v>
+        <v>31.0909</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-999</v>
+        <v>42.432</v>
       </c>
     </row>
     <row r="41">
@@ -786,7 +786,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-999</v>
+        <v>24.6709</v>
       </c>
     </row>
     <row r="45">
@@ -818,7 +818,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>-999</v>
+        <v>47.6102</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>-999</v>
+        <v>6.039</v>
       </c>
     </row>
     <row r="50">
@@ -874,7 +874,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>-999</v>
+        <v>7.9669</v>
       </c>
     </row>
     <row r="56">
@@ -898,7 +898,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-999</v>
+        <v>5.863</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>-999</v>
+        <v>22.0111</v>
       </c>
     </row>
     <row r="60">
@@ -922,7 +922,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>-999</v>
+        <v>11.4437</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>-999</v>
+        <v>6.9115</v>
       </c>
     </row>
     <row r="63">
@@ -946,7 +946,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>-999</v>
+        <v>22.476</v>
       </c>
     </row>
     <row r="65">
@@ -962,7 +962,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>-999</v>
+        <v>31.462</v>
       </c>
     </row>
     <row r="67">
@@ -1002,7 +1002,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>-999</v>
+        <v>7.7451</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>-999</v>
+        <v>40.4179</v>
       </c>
     </row>
     <row r="73">
@@ -1034,7 +1034,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>-999</v>
+        <v>47.2011</v>
       </c>
     </row>
     <row r="76">
@@ -1050,7 +1050,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>-999</v>
+        <v>14.6813</v>
       </c>
     </row>
     <row r="78">
@@ -1074,7 +1074,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>-999</v>
+        <v>4.5177</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>-999</v>
+        <v>15.5669</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>-999</v>
+        <v>9.3971</v>
       </c>
     </row>
     <row r="83">
@@ -1114,7 +1114,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>-999</v>
+        <v>9.672800000000001</v>
       </c>
     </row>
     <row r="86">
@@ -1138,7 +1138,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>-999</v>
+        <v>36.0015</v>
       </c>
     </row>
     <row r="89">
@@ -1178,7 +1178,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>-999</v>
+        <v>2.9544</v>
       </c>
     </row>
     <row r="94">
@@ -1234,7 +1234,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>-999</v>
+        <v>6.6695</v>
       </c>
     </row>
     <row r="101">
